--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>推荐树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,12 +91,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,7 +119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -118,6 +128,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,6 +453,7 @@
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="63.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -458,37 +478,82 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>42505</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
+        <v>42507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>42505</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>42507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>42505</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>42507</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>42505</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>42505</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>42505</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4">
+        <v>42507</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>42505</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,66 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页注册页面添加动态验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页注册页面去掉支付宝绑定，添加邮箱和QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更排行榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器设置变更后，没有及时有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿区动态消息改为一行显示，用户+消息+时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请好友注册，第一次注册时提示服务器连接失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏帮助（背景）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册新玩家时，设置的赠送矿山数，没有应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端收取矿石时，向用户提示按整收取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴奋剂加提示，该功能暂未开放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要玩家贡献值超过50，推广奖励就不再加贡献值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贡献值达到50才可提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广奖励中，金币立即赠送，贡献值等下线矿石达到300时，才赠送。同时在推荐树页面，向用户显示奖励发放情况（可以用图标显示，发送了显示彩色，未发送显示灰色）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买矿工时，向玩家提示，需先收取临时产出的矿石，否则丢弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,11 +502,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -470,12 +530,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>42505</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>42505</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4">
+        <v>42510</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -550,12 +616,148 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>42505</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>42505</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4">
+        <v>42519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>42505</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4">
+        <v>42519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>42512</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>42512</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>42514</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>42514</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4">
+        <v>42519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>42514</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>42519</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>42519</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4">
+        <v>42519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>42519</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>42519</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>42519</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>42519</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
+        <v>42519</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
+        <v>42519</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,7 +506,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -644,12 +644,18 @@
         <v>42519</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <v>42512</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <v>42520</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -659,6 +665,12 @@
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4">
+        <v>42520</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
@@ -682,11 +694,11 @@
         <v>42519</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
         <v>42514</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -712,20 +724,32 @@
         <v>42519</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>42519</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4">
+        <v>42520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>42519</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4">
+        <v>42520</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -752,12 +776,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>42519</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="4">
+        <v>42520</v>
       </c>
     </row>
   </sheetData>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +196,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,7 +509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -672,12 +675,18 @@
         <v>42520</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
         <v>42514</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4">
+        <v>42520</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -701,6 +710,12 @@
       <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4">
+        <v>42520</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
@@ -753,7 +768,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="A20" s="6">
         <v>42519</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -761,7 +776,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="A21" s="6">
         <v>42519</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -769,7 +784,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="A22" s="6">
         <v>42519</v>
       </c>
       <c r="B22" s="2" t="s">

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,7 +509,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -717,12 +717,18 @@
         <v>42520</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>42519</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -767,12 +773,18 @@
         <v>42520</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="6">
-        <v>42519</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>42519</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4">
+        <v>42521</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,21 @@
   <si>
     <t>购买矿工时，向玩家提示，需先收取临时产出的矿石，否则丢弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、QQ客服</t>
+  </si>
+  <si>
+    <t>2、系统公告系统完善、添加到客服客户端功能里面</t>
+  </si>
+  <si>
+    <t>3、即时支付功能申请</t>
+  </si>
+  <si>
+    <t>4、聊天系统开发</t>
+  </si>
+  <si>
+    <t>5、娱乐系统开发（幸运转盘 先开发出来这个比较简单）</t>
   </si>
 </sst>
 </file>
@@ -505,11 +520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -815,6 +830,31 @@
       </c>
       <c r="D23" s="4">
         <v>42520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,18 @@
   </si>
   <si>
     <t>5、娱乐系统开发（幸运转盘 先开发出来这个比较简单）</t>
+  </si>
+  <si>
+    <t>1. 支付异常情况下的订单处理，这个得需要管理系统介入。</t>
+  </si>
+  <si>
+    <t>2. 新加了一个功能区，叫“我的矿场”，想是把购买记录，充值记录，矿石交易记录等，都放在这里，供玩家查看</t>
+  </si>
+  <si>
+    <t>3. 管理系统功能还需再丰富</t>
+  </si>
+  <si>
+    <t>4. 网页的流量统计</t>
   </si>
 </sst>
 </file>
@@ -520,11 +532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24:B28"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -855,6 +867,26 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>4. 网页的流量统计</t>
+  </si>
+  <si>
+    <t>客户端发布域名：game.xlwinfo.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -532,11 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,18 +564,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
-        <v>42505</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4">
-        <v>42510</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -579,13 +574,13 @@
         <v>42505</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="4">
-        <v>42507</v>
+        <v>42510</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -593,7 +588,7 @@
         <v>42505</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -602,12 +597,12 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>42505</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -616,12 +611,18 @@
         <v>42507</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
         <v>42505</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>42507</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -629,21 +630,15 @@
         <v>42505</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>42505</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>42505</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4">
-        <v>42507</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -651,13 +646,13 @@
         <v>42505</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4">
-        <v>42519</v>
+        <v>42507</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -665,7 +660,7 @@
         <v>42505</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>19</v>
@@ -676,16 +671,16 @@
     </row>
     <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>42512</v>
+        <v>42505</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4">
-        <v>42520</v>
+        <v>42519</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -693,7 +688,7 @@
         <v>42512</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -704,10 +699,10 @@
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>42514</v>
+        <v>42512</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -721,13 +716,13 @@
         <v>42514</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4">
-        <v>42519</v>
+        <v>42520</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -735,27 +730,27 @@
         <v>42514</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4">
-        <v>42520</v>
+        <v>42519</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>42519</v>
+        <v>42514</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="4">
-        <v>42521</v>
+        <v>42520</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -763,13 +758,13 @@
         <v>42519</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4">
-        <v>42519</v>
+        <v>42521</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -777,13 +772,13 @@
         <v>42519</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4">
-        <v>42520</v>
+        <v>42519</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -791,7 +786,7 @@
         <v>42519</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>12</v>
@@ -805,87 +800,101 @@
         <v>42519</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4">
+        <v>42520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>42519</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4">
         <v>42521</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="6">
-        <v>42519</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="6">
+        <v>42519</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
-        <v>42519</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="6">
+        <v>42519</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
-        <v>42519</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
+        <v>42519</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="4">
         <v>42520</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,9 +142,6 @@
     <t>4、聊天系统开发</t>
   </si>
   <si>
-    <t>5、娱乐系统开发（幸运转盘 先开发出来这个比较简单）</t>
-  </si>
-  <si>
     <t>1. 支付异常情况下的订单处理，这个得需要管理系统介入。</t>
   </si>
   <si>
@@ -158,6 +155,22 @@
   </si>
   <si>
     <t>客户端发布域名：game.xlwinfo.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家一个月内只能购买一个玩家30次矿石订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用户1000，注册新账户IP限制不作数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、娱乐系统开发（幸运转盘 先开发出来这个比较简单）跑马灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵币提现可以驳回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,11 +549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,7 +579,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -875,27 +888,42 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>灵币提现可以驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家提现后冻结灵币，经常被清0，导致无法为玩家支付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,11 +553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -843,6 +847,9 @@
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
@@ -870,11 +877,17 @@
       <c r="B25" t="s">
         <v>28</v>
       </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>29</v>
       </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
@@ -924,6 +937,11 @@
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,21 @@
   <si>
     <t>玩家提现后冻结灵币，经常被清0，导致无法为玩家支付</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、矿山储量星号显示，低于50000可见并可勘探，不可见时不能勘探    </t>
+  </si>
+  <si>
+    <t>2、显示矿场总储量矿石数量，vip可见，非VIP 前2后3中间星号，矿主每次登陆时数为准</t>
+  </si>
+  <si>
+    <t>3:、设定总储量值，高于不可勘探，小于才能勘探</t>
+  </si>
+  <si>
+    <t>4、勘探矿山储量为浮动值，VIP范围为900-1200   非VIP700-1200  （最好是1100以上概率低）</t>
+  </si>
+  <si>
+    <t>5、修改采矿区提示：XXXX  历尽千辛万苦勘探了一条新的矿脉，矿工又有活干了</t>
   </si>
 </sst>
 </file>
@@ -553,11 +568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -942,6 +957,31 @@
     <row r="37" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="二区功能列表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,13 +191,78 @@
   </si>
   <si>
     <t>5、修改采矿区提示：XXXX  历尽千辛万苦勘探了一条新的矿脉，矿工又有活干了</t>
+  </si>
+  <si>
+    <t>工作项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂猜石游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程协助业务网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家充值三级返回点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家推荐三级树显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎石功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式，　一次　　一个月　　半年　　　一年</t>
+  </si>
+  <si>
+    <t>４种支付方式（1元：送10积分），购买远程协助时间，　　一次５０　　一个月３００　　半年　２０００　　　一年５０００</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用昵称对外显示  不使用用户名</t>
+  </si>
+  <si>
+    <t>老区转移网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个登陆窗口，登录后，显示他的账户里应有的数据  就是 贡献值  金币 矿工 矿石储量  矿石，这些信息，然后下面有一个空需要填写注册时候的支付宝号，实名， 填写一个可用的邮箱，然后申请跨区，出一个提示，符不符合要求，复合要求的提示账户将被锁定，老区不可登陆，新区数据转移成功后会以邮件的方式给他发邮件通知他</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +275,15 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -242,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,6 +337,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,9 +650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41:B45"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -993,12 +1073,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="43.875" customWidth="1"/>
+    <col min="2" max="2" width="52.125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="81" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1077,13 +1077,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.875" customWidth="1"/>
     <col min="2" max="2" width="52.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1115,6 +1116,9 @@
       <c r="A3" t="s">
         <v>51</v>
       </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -1145,6 +1149,12 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1">
+        <v>42783</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="81" x14ac:dyDescent="0.15">

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,46 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理系统功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.矿石股票交易记录查看；2.远程协助后台处理；3.转区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加神灵许愿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意玩家均可参与，随机抽取碎片，每天最多三次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片领取显著提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快乐星期五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+  </si>
+  <si>
+    <t>网站客服系统</t>
+  </si>
+  <si>
+    <t>自动提现系统</t>
+  </si>
+  <si>
+    <t>VIP特权</t>
+  </si>
+  <si>
+    <t>代码优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +338,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,10 +390,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1073,11 +1140,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1104,66 +1171,153 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="E2" s="11">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" s="10"/>
+      <c r="D3" s="9" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="E3" s="11">
+        <v>42776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11">
+        <v>42783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11">
+        <v>42784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" s="10"/>
+      <c r="D8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="11">
         <v>42783</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="81" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" s="9" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>62</v>
       </c>
+      <c r="D9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="11">
+        <v>42784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,7 +368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,15 +395,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1144,7 +1135,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1171,153 +1162,159 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="3"/>
+      <c r="D2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="4">
         <v>42767</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="3"/>
+      <c r="D3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="4">
         <v>42776</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
         <v>42783</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
         <v>42784</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="3"/>
+      <c r="D8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="4">
         <v>42783</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
         <v>42784</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>42798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="13"/>
-    </row>
-    <row r="13" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="13"/>
-    </row>
-    <row r="18" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1214,17 +1214,29 @@
         <v>42784</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="3"/>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>42809</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="3"/>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>42809</v>
+      </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">

--- a/工作日志.xlsx
+++ b/工作日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,27 +274,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>快乐星期五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+  </si>
+  <si>
+    <t>网站客服系统</t>
+  </si>
+  <si>
+    <t>自动提现系统</t>
+  </si>
+  <si>
+    <t>VIP特权</t>
+  </si>
+  <si>
+    <t>代码优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分商城和钻石商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>碎片领取显著提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>快乐星期五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城</t>
-  </si>
-  <si>
-    <t>网站客服系统</t>
-  </si>
-  <si>
-    <t>自动提现系统</t>
-  </si>
-  <si>
-    <t>VIP特权</t>
-  </si>
-  <si>
-    <t>代码优化</t>
+    <t>加工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在提现页面加个极速到账和普通到账按钮，非vip使用极速到账扣手续费5%最低收费1元最高50元！vip1-2手续费2% 最低收费一元最高50元  vip3-4手续费1%最低1元最高50 vip5-6手续费0.5%最低1元最高30元  vip7-8 免费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1131,11 +1147,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1288,45 +1304,61 @@
     </row>
     <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="10"/>
+        <v>69</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" s="9" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
+      <c r="B16" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
-        <v>74</v>
-      </c>
       <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="D19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="4">
+        <v>42890</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
